--- a/data/IKPA_NOPEMBER_2025.xlsx
+++ b/data/IKPA_NOPEMBER_2025.xlsx
@@ -554,11 +554,7 @@
           <t>137</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>692339</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>RUTAN KELAS II B BATURAJA</t>
@@ -631,11 +627,7 @@
           <t>005</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>403409</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>PENGADILAN AGAMA MARTAPURA</t>
@@ -708,11 +700,7 @@
           <t>054</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>428258</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
@@ -785,11 +773,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>440507</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
@@ -862,11 +846,7 @@
           <t>015</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>410574</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>KANTOR PELAYANAN PAJAK PRATAMA BATURAJA</t>
@@ -939,11 +919,7 @@
           <t>005</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>402268</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>PENGADILAN AGAMA BATURAJA</t>
@@ -1016,11 +992,7 @@
           <t>005</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>401944</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>PENGADILAN AGAMA MARTAPURA</t>
@@ -1093,11 +1065,7 @@
           <t>005</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>402267</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>PENGADILAN AGAMA BATURAJA</t>
@@ -1170,11 +1138,7 @@
           <t>015</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>527975</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
@@ -1247,11 +1211,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>440505</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
@@ -1324,11 +1284,7 @@
           <t>054</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>668529</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU TIMUR</t>
@@ -1401,11 +1357,7 @@
           <t>060</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>665307</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>POLRES OGAN KOMERING ULU SELATAN</t>
@@ -1478,11 +1430,7 @@
           <t>054</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>667215</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
@@ -1555,11 +1503,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>440506</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
@@ -1632,11 +1576,7 @@
           <t>137</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>692625</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>BAPAS KELAS II OKU INDUK</t>
@@ -1709,11 +1649,7 @@
           <t>060</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>641681</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>POLRES OGAN KOMERING ULU</t>
@@ -1786,11 +1722,7 @@
           <t>005</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>401945</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>PENGADILAN AGAMA MUARADUA</t>
@@ -1863,11 +1795,7 @@
           <t>005</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>403410</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>PENGADILAN AGAMA MUARADUA</t>
@@ -1940,11 +1868,7 @@
           <t>012</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>685001</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>PUSLATPUR KODIKLATAD</t>
@@ -2017,11 +1941,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>553099</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>MADRASAH TSANAWIYAH NEGERI 3 OGAN KOMERING ULU TIMUR</t>
@@ -2094,11 +2014,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>597480</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>MADRASAH TSANAWIYAH NEGERI 4 OGAN KOMERING ULU TIMUR</t>
@@ -2171,11 +2087,7 @@
           <t>060</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>665292</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>POLRES OGAN KOMERING ULU TIMUR</t>
@@ -2248,11 +2160,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>440503</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
@@ -2325,11 +2233,7 @@
           <t>006</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>007208</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
@@ -2402,11 +2306,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>418462</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>MADRASAH TSANAWIYAH NEGERI 2 OGAN KOMERING ULU SELATAN</t>
@@ -2479,11 +2379,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>111071</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
@@ -2556,11 +2452,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>418456</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
@@ -2633,11 +2525,7 @@
           <t>056</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>669055</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU TIMUR PROV. SUMATRA SELATAN</t>
@@ -2710,11 +2598,7 @@
           <t>076</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>656553</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>KPU  KABUPATEN OGAN KOMERING ULU</t>
@@ -2787,11 +2671,7 @@
           <t>076</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>656560</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
@@ -2864,11 +2744,7 @@
           <t>006</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>007130</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>KEJAKSAAN NEGERI OGAN KOMERING ULU</t>
@@ -2941,11 +2817,7 @@
           <t>137</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>692334</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>LAPAS KELAS II B MUARA DUA</t>
@@ -3018,11 +2890,7 @@
           <t>006</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>007190</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>KEJAKSAAN NEGERI OGAN KOMERING ULU TIMUR</t>
@@ -3095,11 +2963,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>661192</t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>MADRASAH TSANAWIYAH NEGERI 4 OGAN KOMERING ULU SELATAN</t>
@@ -3172,11 +3036,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>424967</t>
-        </is>
-      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU TIMUR</t>
@@ -3249,11 +3109,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>662127</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU SELATAN</t>
@@ -3326,11 +3182,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>424245</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
           <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU</t>
@@ -3403,11 +3255,7 @@
           <t>005</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>098963</t>
-        </is>
-      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
           <t>PENGADILAN NEGERI BATURAJA</t>
@@ -3480,11 +3328,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>418471</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
           <t>MADRASAH TSANAWIYAH NEGERI 2 OGAN KOMERING ULU TIMUR</t>
@@ -3557,11 +3401,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>440502</t>
-        </is>
-      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
@@ -3634,11 +3474,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>666504</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
@@ -3711,11 +3547,7 @@
           <t>076</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>656574</t>
-        </is>
-      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>KPU  KABUPATEN OGAN KOMERING ULU SELATAN</t>
@@ -3788,11 +3620,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>597558</t>
-        </is>
-      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
           <t>MADRASAH ALIYAH NEGERI 2 OGAN KOMERING ULU SELATAN</t>
@@ -3865,11 +3693,7 @@
           <t>024</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>690801</t>
-        </is>
-      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
           <t>LOKA LABORATORIUM KESEHATAN MASYARAKAT BATURAJA</t>
@@ -3942,11 +3766,7 @@
           <t>056</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>431142</t>
-        </is>
-      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
           <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU</t>
@@ -4019,11 +3839,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>440504</t>
-        </is>
-      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
@@ -4096,11 +3912,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>426050</t>
-        </is>
-      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
           <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU</t>
@@ -4173,11 +3985,7 @@
           <t>056</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>670561</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
           <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU SELATAN</t>
@@ -4250,11 +4058,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>426066</t>
-        </is>
-      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
           <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU TIMUR</t>
@@ -4327,11 +4131,7 @@
           <t>066</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>111079</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
           <t>BADAN NARKOTIKA NASIONAL KABUPATEN OGAN KOMERING ULU TIMUR</t>
@@ -4404,11 +4204,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>666505</t>
-        </is>
-      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
@@ -4481,11 +4277,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>666503</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
@@ -4558,11 +4350,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>553792</t>
-        </is>
-      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
           <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU SELATAN</t>
@@ -4635,11 +4423,7 @@
           <t>137</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>692340</t>
-        </is>
-      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
           <t>LAPAS KELAS II B MARTAPURA</t>
@@ -4712,11 +4496,7 @@
           <t>137</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>692725</t>
-        </is>
-      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
           <t>RUPBASAN KELAS II BATURAJA</t>
@@ -4789,11 +4569,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>418459</t>
-        </is>
-      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
@@ -4866,11 +4642,7 @@
           <t>115</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>419006</t>
-        </is>
-      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
           <t>SEKRETARIAT BAWASLU KABUPATEN OGAN KOMERING ULU</t>
@@ -4943,11 +4715,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>418458</t>
-        </is>
-      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
@@ -5020,11 +4788,7 @@
           <t>115</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>686503</t>
-        </is>
-      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
           <t>SEKRETARIAT BAWASLU KABUPATEN OGAN KOMERING ULU SELATAN</t>
@@ -5097,11 +4861,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>666501</t>
-        </is>
-      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
@@ -5174,11 +4934,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>666507</t>
-        </is>
-      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
@@ -5251,11 +5007,7 @@
           <t>012</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>344894</t>
-        </is>
-      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
           <t>RUMKIT TK. III 02.06.02 DR. NOESMIR BATURAJA KESDAM II/SWJ</t>
@@ -5328,11 +5080,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>574370</t>
-        </is>
-      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>MADRASAH TSANAWIYAH NEGERI 3 OGAN KOMERING ULU SELATAN</t>
@@ -5405,11 +5153,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>666502</t>
-        </is>
-      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
@@ -5482,11 +5226,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>418457</t>
-        </is>
-      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
@@ -5559,11 +5299,7 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>418461</t>
-        </is>
-      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
@@ -5636,11 +5372,7 @@
           <t>005</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>099228</t>
-        </is>
-      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
           <t>PENGADILAN NEGERI BATURAJA</t>
@@ -5713,11 +5445,7 @@
           <t>152</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>691653</t>
-        </is>
-      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
           <t>DINAS TENAGA KERJA DAN TRANSMIGRASI KABUPATEN OKU TIMUR</t>

--- a/data/IKPA_NOPEMBER_2025.xlsx
+++ b/data/IKPA_NOPEMBER_2025.xlsx
@@ -554,7 +554,11 @@
           <t>137</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>692339</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>RUTAN KELAS II B BATURAJA</t>
@@ -627,7 +631,11 @@
           <t>005</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>403409</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>PENGADILAN AGAMA MARTAPURA</t>
@@ -700,7 +708,11 @@
           <t>054</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>428258</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
@@ -773,7 +785,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>440507</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
@@ -846,7 +862,11 @@
           <t>015</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>410574</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>KANTOR PELAYANAN PAJAK PRATAMA BATURAJA</t>
@@ -919,7 +939,11 @@
           <t>005</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>402268</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>PENGADILAN AGAMA BATURAJA</t>
@@ -992,7 +1016,11 @@
           <t>005</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>401944</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>PENGADILAN AGAMA MARTAPURA</t>
@@ -1065,7 +1093,11 @@
           <t>005</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>402267</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>PENGADILAN AGAMA BATURAJA</t>
@@ -1138,7 +1170,11 @@
           <t>015</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>527975</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
@@ -1211,7 +1247,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>440505</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
@@ -1284,7 +1324,11 @@
           <t>054</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>668529</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU TIMUR</t>
@@ -1357,7 +1401,11 @@
           <t>060</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>665307</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>POLRES OGAN KOMERING ULU SELATAN</t>
@@ -1430,7 +1478,11 @@
           <t>054</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>667215</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
@@ -1503,7 +1555,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>440506</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
@@ -1576,7 +1632,11 @@
           <t>137</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>692625</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>BAPAS KELAS II OKU INDUK</t>
@@ -1649,7 +1709,11 @@
           <t>060</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>641681</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>POLRES OGAN KOMERING ULU</t>
@@ -1722,7 +1786,11 @@
           <t>005</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>401945</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>PENGADILAN AGAMA MUARADUA</t>
@@ -1795,7 +1863,11 @@
           <t>005</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>403410</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>PENGADILAN AGAMA MUARADUA</t>
@@ -1868,7 +1940,11 @@
           <t>012</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>685001</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>PUSLATPUR KODIKLATAD</t>
@@ -1941,7 +2017,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>553099</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>MADRASAH TSANAWIYAH NEGERI 3 OGAN KOMERING ULU TIMUR</t>
@@ -2014,7 +2094,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>597480</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>MADRASAH TSANAWIYAH NEGERI 4 OGAN KOMERING ULU TIMUR</t>
@@ -2087,7 +2171,11 @@
           <t>060</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>665292</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>POLRES OGAN KOMERING ULU TIMUR</t>
@@ -2160,7 +2248,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>440503</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
@@ -2233,7 +2325,11 @@
           <t>006</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>007208</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
@@ -2306,7 +2402,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>418462</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>MADRASAH TSANAWIYAH NEGERI 2 OGAN KOMERING ULU SELATAN</t>
@@ -2379,7 +2479,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>111071</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
@@ -2452,7 +2556,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>418456</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
@@ -2525,7 +2633,11 @@
           <t>056</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>669055</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU TIMUR PROV. SUMATRA SELATAN</t>
@@ -2598,7 +2710,11 @@
           <t>076</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>656553</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>KPU  KABUPATEN OGAN KOMERING ULU</t>
@@ -2671,7 +2787,11 @@
           <t>076</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>656560</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
@@ -2744,7 +2864,11 @@
           <t>006</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>KEJAKSAAN NEGERI OGAN KOMERING ULU</t>
@@ -2817,7 +2941,11 @@
           <t>137</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>692334</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>LAPAS KELAS II B MUARA DUA</t>
@@ -2890,7 +3018,11 @@
           <t>006</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>007190</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>KEJAKSAAN NEGERI OGAN KOMERING ULU TIMUR</t>
@@ -2963,7 +3095,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>661192</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>MADRASAH TSANAWIYAH NEGERI 4 OGAN KOMERING ULU SELATAN</t>
@@ -3036,7 +3172,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>424967</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU TIMUR</t>
@@ -3109,7 +3249,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>662127</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU SELATAN</t>
@@ -3182,7 +3326,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>424245</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU</t>
@@ -3255,7 +3403,11 @@
           <t>005</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>098963</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>PENGADILAN NEGERI BATURAJA</t>
@@ -3328,7 +3480,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>418471</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>MADRASAH TSANAWIYAH NEGERI 2 OGAN KOMERING ULU TIMUR</t>
@@ -3401,7 +3557,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>440502</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
@@ -3474,7 +3634,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>666504</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
@@ -3547,7 +3711,11 @@
           <t>076</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>656574</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>KPU  KABUPATEN OGAN KOMERING ULU SELATAN</t>
@@ -3620,7 +3788,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>597558</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>MADRASAH ALIYAH NEGERI 2 OGAN KOMERING ULU SELATAN</t>
@@ -3693,7 +3865,11 @@
           <t>024</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>690801</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>LOKA LABORATORIUM KESEHATAN MASYARAKAT BATURAJA</t>
@@ -3766,7 +3942,11 @@
           <t>056</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>431142</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU</t>
@@ -3839,7 +4019,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>440504</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
@@ -3912,7 +4096,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>426050</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU</t>
@@ -3985,7 +4173,11 @@
           <t>056</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>670561</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU SELATAN</t>
@@ -4058,7 +4250,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>426066</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU TIMUR</t>
@@ -4131,7 +4327,11 @@
           <t>066</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>111079</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>BADAN NARKOTIKA NASIONAL KABUPATEN OGAN KOMERING ULU TIMUR</t>
@@ -4204,7 +4404,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>666505</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
@@ -4277,7 +4481,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>666503</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
@@ -4350,7 +4558,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>553792</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU SELATAN</t>
@@ -4423,7 +4635,11 @@
           <t>137</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>692340</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>LAPAS KELAS II B MARTAPURA</t>
@@ -4496,7 +4712,11 @@
           <t>137</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>692725</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>RUPBASAN KELAS II BATURAJA</t>
@@ -4569,7 +4789,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>418459</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
@@ -4642,7 +4866,11 @@
           <t>115</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>419006</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>SEKRETARIAT BAWASLU KABUPATEN OGAN KOMERING ULU</t>
@@ -4715,7 +4943,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>418458</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
@@ -4788,7 +5020,11 @@
           <t>115</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>686503</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>SEKRETARIAT BAWASLU KABUPATEN OGAN KOMERING ULU SELATAN</t>
@@ -4861,7 +5097,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>666501</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
@@ -4934,7 +5174,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>666507</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
@@ -5007,7 +5251,11 @@
           <t>012</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>344894</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>RUMKIT TK. III 02.06.02 DR. NOESMIR BATURAJA KESDAM II/SWJ</t>
@@ -5080,7 +5328,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>574370</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>MADRASAH TSANAWIYAH NEGERI 3 OGAN KOMERING ULU SELATAN</t>
@@ -5153,7 +5405,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>666502</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
@@ -5226,7 +5482,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>418457</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
@@ -5299,7 +5559,11 @@
           <t>025</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>418461</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
@@ -5372,7 +5636,11 @@
           <t>005</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>099228</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>PENGADILAN NEGERI BATURAJA</t>
@@ -5445,7 +5713,11 @@
           <t>152</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>691653</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>DINAS TENAGA KERJA DAN TRANSMIGRASI KABUPATEN OKU TIMUR</t>
